--- a/Lit_Review_Fig/FireMeta_Rproj/inputs/Studies/Hall_Lombardozzi_2008/Hall_Lombardozzi_2018.xlsx
+++ b/Lit_Review_Fig/FireMeta_Rproj/inputs/Studies/Hall_Lombardozzi_2008/Hall_Lombardozzi_2018.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-modeling/Lit_Review_Fig/FireMeta_Rproj/inputs/Studies/Hall_Lombardozzi_2008/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A6D3BD-7A4A-2948-8AFF-B74EE5330229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186A9B71-A20C-614E-A5D3-A2F8D3468F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2700" yWindow="1460" windowWidth="27240" windowHeight="16420" xr2:uid="{538AD7EB-160E-9641-91F6-A7D826942086}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="43">
   <si>
     <t>Study_ID</t>
   </si>
@@ -217,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -225,10 +225,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,7 +543,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -629,70 +625,68 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2">
         <v>39.028229000000003</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2">
         <v>-105.17336299999999</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2">
         <v>1</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2">
         <v>0.25</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7" t="s">
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" t="s">
         <v>33</v>
       </c>
       <c r="H3" t="s">
@@ -714,26 +708,24 @@
       <c r="R3" t="s">
         <v>27</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7" t="s">
+      <c r="F4" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" t="s">
         <v>33</v>
       </c>
       <c r="H4" t="s">
@@ -755,26 +747,24 @@
       <c r="R4" t="s">
         <v>27</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="U4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
+      <c r="F5" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" t="s">
         <v>33</v>
       </c>
       <c r="H5" t="s">
@@ -796,26 +786,24 @@
       <c r="R5" t="s">
         <v>27</v>
       </c>
-      <c r="U5" s="7" t="s">
+      <c r="U5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7" t="s">
+      <c r="F6" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" t="s">
         <v>33</v>
       </c>
       <c r="H6" t="s">
@@ -837,26 +825,24 @@
       <c r="R6" t="s">
         <v>27</v>
       </c>
-      <c r="U6" s="7" t="s">
+      <c r="U6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7" t="s">
+      <c r="F7" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" t="s">
@@ -878,17 +864,26 @@
       <c r="R7" t="s">
         <v>27</v>
       </c>
-      <c r="U7" s="7" t="s">
+      <c r="U7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="7" t="s">
+      <c r="F8" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" t="s">
         <v>33</v>
       </c>
       <c r="H8" t="s">
@@ -912,12 +907,21 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="7" t="s">
+      <c r="F9" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" t="s">
         <v>33</v>
       </c>
       <c r="H9" t="s">
